--- a/SpaOnline/Fabricante - Muestreo Datos.xlsx
+++ b/SpaOnline/Fabricante - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO GIT/SpaOnline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEC2781-028A-4B20-B688-2C0F59641A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF11142-363C-4382-BBF4-DB412622E24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,12 +126,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -589,7 +583,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,13 +598,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,12 +651,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/SpaOnline/Fabricante - Muestreo Datos.xlsx
+++ b/SpaOnline/Fabricante - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF11142-363C-4382-BBF4-DB412622E24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD53131-B18C-4B9C-848A-96D27B669440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos de tecnologia</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
@@ -90,13 +87,16 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>CeraV</t>
-  </si>
-  <si>
-    <t>Lemar</t>
-  </si>
-  <si>
-    <t>MediPiel</t>
+    <t>L'Oréal</t>
+  </si>
+  <si>
+    <t>Dermalogica</t>
+  </si>
+  <si>
+    <t>Lubridem</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de las empresas que fabrican marcas de productos de tecnologia</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -650,26 +650,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -677,11 +677,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>B2</f>
-        <v>CeraV</v>
+        <v>L'Oréal</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -689,11 +689,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="str">
         <f t="shared" ref="C3:C4" si="0">B3</f>
-        <v>Lemar</v>
+        <v>Dermalogica</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,11 +701,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>MediPiel</v>
+        <v>Lubridem</v>
       </c>
     </row>
   </sheetData>
